--- a/biology/Histoire de la zoologie et de la botanique/Émile_Oustalet/Émile_Oustalet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Émile_Oustalet/Émile_Oustalet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Oustalet</t>
+          <t>Émile_Oustalet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Oustalet, né le 24 août 1844 à Montbéliard et mort le 23 octobre 1905 (à 61 ans), est un zoologiste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Oustalet</t>
+          <t>Émile_Oustalet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie et travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa thèse porte sur des Recherches sur les insectes fossiles des terrains tertiaires de la France (1874) où il étudie les fossiles principalement d'Auvergne et des alentours d'Aix-en-Provence. En 1873, il succède à Jules Verreaux (1807-1873) comme assistant-naturaliste au Muséum national d'histoire naturelle de Paris. En 1900, il occupe la chaire de mammalogie après la mort d'Alphonse Milne-Edwards (1835-1900).
 Il fait paraître Les Oiseaux de la Chine ... Avec un atlas de 124 planches, dessinées et lithographiées par M. Arnoul et coloriées au pinceau (1877) avec le père Armand David (1826-1900). C'est lui qui étudie et décrit les 160 spécimens rapportés par Jean Dybowski (1856-1928) lors de son expédition au Congo.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Oustalet</t>
+          <t>Émile_Oustalet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Premières descriptions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Equus grevyi - Zèbre de Grévy, 1882.
 Montifringilla henrici – Niverolle de Henri, 1892.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89mile_Oustalet</t>
+          <t>Émile_Oustalet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +592,49 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Frédéric Émile Oustalet présidera la Société zoologique de France en 1893. Il sera membre du Conseil d'administration de la Société Nationale d'Acclimatation de France de 1892 à 1905[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Frédéric Émile Oustalet présidera la Société zoologique de France en 1893. Il sera membre du Conseil d'administration de la Société Nationale d'Acclimatation de France de 1892 à 1905.
 Il est fait chevalier de la légion d'honneur. 
-Espèces dédiées (décrites par un tiers)
-Anas oustaleti (Salvadori, 1894) ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Émile_Oustalet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89mile_Oustalet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces dédiées (décrites par un tiers)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anas oustaleti (Salvadori, 1894) ;
 Anthicus oustaleti Telnov, 1999 ;
 Cinclodes oustaleti Scott, 1900 – Cinclode d'Oustalet ;
 Cinnyris oustaleti (Bocage, 1878) – Souimanga d'Oustalet ;
@@ -594,31 +647,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89mile_Oustalet</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Émile_Oustalet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89mile_Oustalet</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1874 : Recherches sur les insectes fossiles des terrains tertiaires de la France (Paris : G. Masson).
 1877 : avec Armand David, Les Oiseaux de la Chine (G. Masson, Paris, deux volumes).
